--- a/biology/Zoologie/Buffle/Buffle.xlsx
+++ b/biology/Zoologie/Buffle/Buffle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bubalina
 Le terme Buffle s'applique à une lignée de bovins, la sous-tribu des Bubalina, qui se décompose en deux genres :
@@ -514,14 +526,16 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot « buffle », venu de l’italien bufalo, dérive du grec boúbalis « antilope », « bœuf sauvage ». Le nom de la femelle est  bufflone (graphie de Littré) ou bufflonne.
 Les buffles sont issus d'une souche commune qui est asiatique. Au cours des siècles sont apparues des différences si bien qu'aujourd'hui il existe deux grandes lignées : les buffles d'Asie et les buffles d'Afrique, constituant respectivement les genres Bubalus (Hamilton Smith, 1827) et Syncerus (Hodgson, 1847).
-Près d'un million de buffles vivent sur le continent africain, dont les trois quarts dans des aires protégées du sud du Sahara jusqu'à la limite de l'Afrique australe[1].
+Près d'un million de buffles vivent sur le continent africain, dont les trois quarts dans des aires protégées du sud du Sahara jusqu'à la limite de l'Afrique australe.
 Le buffle a été domestiqué en Asie et une souche a été importée en Europe, que l'on nomme buffle méditerranéen.
 Les mâles adultes pèsent de 700 à 900 kg, contre 500 kg en moyenne pour les bufflones. Les mâles mesurent 1,70 mètre au garrot pour une longueur du corps de 3,50 mètres. Les bufflones mesurent 1,40 mètre au garrot pour une longueur du corps de 2,50 mètres.
-Les seuls prédateurs des buffles sont le tigre en Asie et le lion en Afrique ; ces derniers s'attaquent uniquement à des individus vulnérables comme les jeunes, âgés ou malades. Grands, forts et musclés, les buffles peuvent courir très vite et faire des pointes à 30 km/h pour les mâles les plus massifs, jusqu'à 55 km/h[2] pour les bufflones, plus légères. Moins rapides que d'autres herbivores, ils sont très puissants et se défendent en chargeant avec leurs cornes. Les buffles d'Afrique sont grégaires, irascibles et très dangereux, pouvant tuer des lions ou des chasseurs.
+Les seuls prédateurs des buffles sont le tigre en Asie et le lion en Afrique ; ces derniers s'attaquent uniquement à des individus vulnérables comme les jeunes, âgés ou malades. Grands, forts et musclés, les buffles peuvent courir très vite et faire des pointes à 30 km/h pour les mâles les plus massifs, jusqu'à 55 km/h pour les bufflones, plus légères. Moins rapides que d'autres herbivores, ils sont très puissants et se défendent en chargeant avec leurs cornes. Les buffles d'Afrique sont grégaires, irascibles et très dangereux, pouvant tuer des lions ou des chasseurs.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce sont des ruminants appartenant à la sous-famille des bovinae (bovins)
 Il existe deux genres :
@@ -592,9 +608,11 @@
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les dix tableaux du « dressage du buffle » sont un thème iconographique bouddhiste commun[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dix tableaux du « dressage du buffle » sont un thème iconographique bouddhiste commun.
 			Buffle à roulettes, jouet d'enfant. Terre cuite, Grande Grèce, époque archaïque.
 			Buffles, par Pisanello (vers 1420-1440)
 			Csordás (« bouviers ») en Hongrie au XIXe siècle.
